--- a/csdl-quan-ly-thu-vien.xlsx
+++ b/csdl-quan-ly-thu-vien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEVMASTER\DEV2206LM_SpringBoot\reactjs-springboot-quanlythuvien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF1F3828-1F07-4CF3-A5FD-DDF0DF505BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6945B61-C767-45EE-866F-19CB73280DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{78A8B826-7123-4EF5-A3E5-3C4992A93BB3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="55">
   <si>
     <t>nha_xuat_ban</t>
   </si>
@@ -99,13 +99,115 @@
   </si>
   <si>
     <t>Primary Key</t>
+  </si>
+  <si>
+    <t>ct_muon_tra</t>
+  </si>
+  <si>
+    <t>ma_ct_muon_tra</t>
+  </si>
+  <si>
+    <t>ma_muon_tra</t>
+  </si>
+  <si>
+    <t>ma_sach</t>
+  </si>
+  <si>
+    <t>ghi_chu</t>
+  </si>
+  <si>
+    <t>da_tra</t>
+  </si>
+  <si>
+    <t>ngay_tra</t>
+  </si>
+  <si>
+    <t>TINYINT(1)</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>doc_gia</t>
+  </si>
+  <si>
+    <t>ma_doc_gia</t>
+  </si>
+  <si>
+    <t>ten_doc_gia</t>
+  </si>
+  <si>
+    <t>so_the</t>
+  </si>
+  <si>
+    <t>muon_tra</t>
+  </si>
+  <si>
+    <t>ma_nhan_vien</t>
+  </si>
+  <si>
+    <t>ngay_muon</t>
+  </si>
+  <si>
+    <t>nhan_vien</t>
+  </si>
+  <si>
+    <t>ho_ten</t>
+  </si>
+  <si>
+    <t>ngay_sinh</t>
+  </si>
+  <si>
+    <t>so_dien_thoai</t>
+  </si>
+  <si>
+    <t>sach</t>
+  </si>
+  <si>
+    <t>ten_sach</t>
+  </si>
+  <si>
+    <t>ma_tac_gia</t>
+  </si>
+  <si>
+    <t>ma_the_loai</t>
+  </si>
+  <si>
+    <t>nam_xuat_ban</t>
+  </si>
+  <si>
+    <t>tac_gia</t>
+  </si>
+  <si>
+    <t>ten_tac_gia</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>VARCHAR(1000)</t>
+  </si>
+  <si>
+    <t>the_loai</t>
+  </si>
+  <si>
+    <t>ten_the_loai</t>
+  </si>
+  <si>
+    <t>the_thu_vien</t>
+  </si>
+  <si>
+    <t>ngay_bat_dau</t>
+  </si>
+  <si>
+    <t>ngay_het_han</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +224,24 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -163,219 +283,1160 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
+  <dxfs count="70">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -391,28 +1452,140 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CE9A8AF9-7176-4F98-A391-95B2A796BAE6}" name="Table1" displayName="Table1" ref="B3:F6" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="B3:F6" xr:uid="{CE9A8AF9-7176-4F98-A391-95B2A796BAE6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CE9A8AF9-7176-4F98-A391-95B2A796BAE6}" name="Table1" displayName="Table1" ref="B3:F7" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
+  <autoFilter ref="B3:F7" xr:uid="{CE9A8AF9-7176-4F98-A391-95B2A796BAE6}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{748F19C0-87C0-4E12-884C-0F59305C8F58}" name="stt" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{11AD2AEB-59DE-4824-80DD-18CD06857EDF}" name="Column" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{1E811C26-B55D-4651-9031-8A3F70019BBE}" name="Type" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{6FA8E413-C2AF-48AA-A88B-E7A7CA0DA1D9}" name="Tên cột" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{91CA3C44-2C1C-4981-9300-4BE6F3CDED1B}" name="Ràng buộc" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{748F19C0-87C0-4E12-884C-0F59305C8F58}" name="stt" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{11AD2AEB-59DE-4824-80DD-18CD06857EDF}" name="Column" dataDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{1E811C26-B55D-4651-9031-8A3F70019BBE}" name="Type" dataDxfId="65"/>
+    <tableColumn id="4" xr3:uid="{6FA8E413-C2AF-48AA-A88B-E7A7CA0DA1D9}" name="Tên cột" dataDxfId="64"/>
+    <tableColumn id="5" xr3:uid="{91CA3C44-2C1C-4981-9300-4BE6F3CDED1B}" name="Ràng buộc" dataDxfId="63"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{B6C40950-FE63-41C8-9E52-B6266420F6C5}" name="Table111" displayName="Table111" ref="B70:F74" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="B70:F74" xr:uid="{B6C40950-FE63-41C8-9E52-B6266420F6C5}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{EF7B59E7-1822-4EB3-B0F7-696F6CE2BD71}" name="stt" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{551DCF3D-C4CB-4B3C-83C5-4AB8FDC9441E}" name="Column" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{FCE81C6E-8D24-4F52-8B77-3035C41CE447}" name="Type" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{D80EFFE4-9535-4157-A5DA-CF850F2C353B}" name="Tên cột" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{90250AE6-8462-46C0-AC15-122D7D2CD390}" name="Ràng buộc" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{70836EEB-1A7E-46AB-9B6B-F32D88145909}" name="Table13" displayName="Table13" ref="B11:F16" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{70836EEB-1A7E-46AB-9B6B-F32D88145909}" name="Table13" displayName="Table13" ref="B11:F16" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
   <autoFilter ref="B11:F16" xr:uid="{70836EEB-1A7E-46AB-9B6B-F32D88145909}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C24EF51A-BE6A-43E4-A779-00C7DD74C80A}" name="stt" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{84EE530C-3930-4BDE-8227-FF8B486A6FEC}" name="Column" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{880096E3-5F07-4F52-8839-E4520D660C62}" name="Type" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{03DE46C6-BE01-47AC-ADCB-A3500C699E86}" name="Tên cột" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{F00ED02E-B010-4FCB-8CAA-A99068BA73CC}" name="Ràng buộc" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{C24EF51A-BE6A-43E4-A779-00C7DD74C80A}" name="stt" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{84EE530C-3930-4BDE-8227-FF8B486A6FEC}" name="Column" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{880096E3-5F07-4F52-8839-E4520D660C62}" name="Type" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{03DE46C6-BE01-47AC-ADCB-A3500C699E86}" name="Tên cột" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{F00ED02E-B010-4FCB-8CAA-A99068BA73CC}" name="Ràng buộc" dataDxfId="56"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4612A1EB-260C-4048-9C4D-7A684D3A1AA0}" name="Table14" displayName="Table14" ref="B19:F25" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+  <autoFilter ref="B19:F25" xr:uid="{4612A1EB-260C-4048-9C4D-7A684D3A1AA0}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{225FC944-1F1A-41D7-9FC9-8F2943F6008E}" name="stt" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{2AC0634A-F501-4892-8F96-3EFC57B0D0F4}" name="Column" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{4587100A-9161-4501-867C-E3DE92F34042}" name="Type" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{43F4E275-29E6-43A5-9E1D-F90D599C6D54}" name="Tên cột" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{504DADA5-99D2-4EB2-90AC-3EBCEB46181C}" name="Ràng buộc" dataDxfId="49"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BC0A4B9A-871E-46FE-8217-A5C399833A46}" name="Table15" displayName="Table15" ref="B28:F32" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
+  <autoFilter ref="B28:F32" xr:uid="{BC0A4B9A-871E-46FE-8217-A5C399833A46}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{3F447622-5060-4656-B81A-A1CA8603A7D7}" name="stt" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{C0A499DE-A179-41BF-8375-98130E50E771}" name="Column" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{C1D00C63-00CF-48A7-A5DE-41694F45347A}" name="Type" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{41168EC9-083B-4581-9113-993FBDC07F46}" name="Tên cột" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{FF0CC675-A923-4691-9670-04ABC71F26D7}" name="Ràng buộc" dataDxfId="42"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{15BEA709-749E-43DF-9E42-621BF3FDA241}" name="Table16" displayName="Table16" ref="B35:F39" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+  <autoFilter ref="B35:F39" xr:uid="{15BEA709-749E-43DF-9E42-621BF3FDA241}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{4E6F0821-10F5-412B-8357-B90433772F30}" name="stt" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{B6B7A161-56CA-455D-B08E-2B4E2E979921}" name="Column" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{2D79CAE8-FAED-451A-A23A-A283FAB3037A}" name="Type" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{898C9F66-5EAB-4110-90C6-E497EC5D14BC}" name="Tên cột" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{38E9BAD4-4750-4D9B-9E52-3317F286B078}" name="Ràng buộc" dataDxfId="35"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{9D8861A6-E174-49AD-B720-6EF208D99B09}" name="Table17" displayName="Table17" ref="B42:F46" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+  <autoFilter ref="B42:F46" xr:uid="{9D8861A6-E174-49AD-B720-6EF208D99B09}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{22483844-B81F-441D-95FE-474F24517FCD}" name="stt" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{44D405B9-B047-470E-BA52-8E61B0061AA6}" name="Column" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{F1C4B9A1-BF00-4D56-B89B-73DD04C81B40}" name="Type" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{19E8B7E2-168B-4672-8710-C9044222DD76}" name="Tên cột" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{6C830F26-6CC7-408F-AA48-AAD9193434B3}" name="Ràng buộc" dataDxfId="28"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3333BBB8-8DE7-4795-83AC-18E138EFB38C}" name="Table18" displayName="Table18" ref="B49:F55" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="B49:F55" xr:uid="{3333BBB8-8DE7-4795-83AC-18E138EFB38C}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{525D781F-92F5-4344-845E-85234AC5DB31}" name="stt" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{1C2C3B18-43A1-4379-8643-82CE2FCDFC36}" name="Column" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{1538CFF6-B2E5-48D0-BBD0-5297696E05AE}" name="Type" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{857557B0-3E90-44E7-BDDF-519F0EE8CC42}" name="Tên cột" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{B8283108-0F6A-48A2-A8DF-ED003801BE7A}" name="Ràng buộc" dataDxfId="21"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{87C9CB8A-E9D0-4CA0-AC62-0D510E63753F}" name="Table19" displayName="Table19" ref="B58:F62" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="B58:F62" xr:uid="{87C9CB8A-E9D0-4CA0-AC62-0D510E63753F}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{70761492-D8A8-4E20-AD42-64855D8EDE4B}" name="stt" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{9BA9481F-B023-4630-9C57-06D3C7B35DDC}" name="Column" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{2ADABD7C-0CFD-4168-9087-13B361E90FC5}" name="Type" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{BAD1F989-7398-4617-AEB1-E1015193CC25}" name="Tên cột" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{44D93FBF-49E4-4CE7-A702-2B536BFCF1F4}" name="Ràng buộc" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{5BC7C168-2542-4E15-B9BD-BEE777434198}" name="Table110" displayName="Table110" ref="B65:F67" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="B65:F67" xr:uid="{5BC7C168-2542-4E15-B9BD-BEE777434198}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{2B50E9BB-7AD7-4F18-B40D-D68091F17D2A}" name="stt" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{2405BD1E-4B31-49A7-94B1-A85D44875967}" name="Column" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{9C2C2904-15B3-4DB8-B346-7FEEF978F0F5}" name="Type" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{72C481CD-D72C-417C-869F-E344AB5B47AA}" name="Tên cột" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{24D942B6-1D6F-4295-8F10-1F68E8B3B945}" name="Ràng buộc" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -715,10 +1888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C336F826-0088-4413-9E96-ECC8E4041518}">
-  <dimension ref="B2:M16"/>
+  <dimension ref="B2:M74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -735,128 +1908,863 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="M6" s="5"/>
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="4">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="4">
+        <v>4</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="4">
+        <v>5</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="4">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="4">
+        <v>3</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="4">
+        <v>4</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="4">
+        <v>5</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="4">
+        <v>6</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="4">
+        <v>2</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="4">
+        <v>3</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="4">
+        <v>4</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="4">
+        <v>1</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="4">
+        <v>2</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="4">
+        <v>3</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="4">
+        <v>4</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="4">
+        <v>1</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="4">
+        <v>2</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="4">
+        <v>3</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="4">
+        <v>4</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="4">
+        <v>1</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="4">
+        <v>2</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="4">
+        <v>3</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="4">
+        <v>4</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="4">
+        <v>5</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="4">
+        <v>6</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" s="4">
+        <v>1</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60" s="4">
+        <v>2</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61" s="4">
+        <v>3</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62" s="4">
+        <v>4</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B64" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B65" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B66" s="4">
+        <v>1</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B67" s="4">
+        <v>2</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B69" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B70" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B71" s="4">
+        <v>1</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B72" s="4">
+        <v>2</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B73" s="4">
+        <v>3</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B74" s="4">
+        <v>4</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="10">
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="B69:F69"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B34:F34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="10">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
--- a/csdl-quan-ly-thu-vien.xlsx
+++ b/csdl-quan-ly-thu-vien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEVMASTER\DEV2206LM_SpringBoot\reactjs-springboot-quanlythuvien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6945B61-C767-45EE-866F-19CB73280DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD55997-818B-4E81-988A-7484D7C4D4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{78A8B826-7123-4EF5-A3E5-3C4992A93BB3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="87">
   <si>
     <t>nha_xuat_ban</t>
   </si>
@@ -201,13 +201,109 @@
   </si>
   <si>
     <t>ngay_het_han</t>
+  </si>
+  <si>
+    <t>Mã chi tiết mượn trả</t>
+  </si>
+  <si>
+    <t>Mã Mượn trả</t>
+  </si>
+  <si>
+    <t>Mã sách</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>Đã trả: trả = 0 || mượn = 1</t>
+  </si>
+  <si>
+    <t>Ngày trả</t>
+  </si>
+  <si>
+    <t>Mã độc giả</t>
+  </si>
+  <si>
+    <t>Tên độc giả</t>
+  </si>
+  <si>
+    <t>Số thẻ</t>
+  </si>
+  <si>
+    <t>Mã mượn trả</t>
+  </si>
+  <si>
+    <t>Mã nhân viên</t>
+  </si>
+  <si>
+    <t>Ngày mượn</t>
+  </si>
+  <si>
+    <t>Họ tên</t>
+  </si>
+  <si>
+    <t>Ngày sinh</t>
+  </si>
+  <si>
+    <t>Số điện thoại</t>
+  </si>
+  <si>
+    <t>Tên sách</t>
+  </si>
+  <si>
+    <t>Mã tác giả</t>
+  </si>
+  <si>
+    <t>Mã thể loại</t>
+  </si>
+  <si>
+    <t>Năm xuất bản</t>
+  </si>
+  <si>
+    <t>Tên tác giả</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Tên thể loại</t>
+  </si>
+  <si>
+    <t>Ngày bắt đầu</t>
+  </si>
+  <si>
+    <t>Ngày hết hạn</t>
+  </si>
+  <si>
+    <t>FK_CT_MUONTRA</t>
+  </si>
+  <si>
+    <t>FK_CTMUONTRA_SACH</t>
+  </si>
+  <si>
+    <t>FK_DOCGIA_THETHUVIEN</t>
+  </si>
+  <si>
+    <t>FK_MUONTRA_THETHUVIEN</t>
+  </si>
+  <si>
+    <t>FK_MUONTRA_NHANVIEN</t>
+  </si>
+  <si>
+    <t>FK_SACH_TACGIA</t>
+  </si>
+  <si>
+    <t>FK_SACH_THELOAI</t>
+  </si>
+  <si>
+    <t>FK_SACH_NXB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +336,28 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -283,13 +401,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -312,7 +427,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1891,7 +2015,7 @@
   <dimension ref="B2:M74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1900,7 +2024,7 @@
     <col min="3" max="3" width="25.21875" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.88671875" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.44140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.88671875" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.5546875" style="1" customWidth="1"/>
@@ -1908,849 +2032,933 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="M6" s="7"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="M6" s="6"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>1</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>2</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>3</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>4</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>5</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>1</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4" t="s">
+      <c r="E20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>2</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="E21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>3</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="E22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>4</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="E23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>5</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="E24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>6</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="E25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="3"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>1</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4" t="s">
+      <c r="E29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>2</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="E30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="3"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>3</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="E31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <v>4</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="E32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="4">
+      <c r="B36" s="3">
         <v>1</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4" t="s">
+      <c r="E36" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="4">
+      <c r="B37" s="3">
         <v>2</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
+      <c r="E37" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="4">
+      <c r="B38" s="3">
         <v>3</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
+      <c r="E38" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <v>4</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
+      <c r="E39" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" s="3"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="4">
+      <c r="B43" s="3">
         <v>1</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4" t="s">
+      <c r="E43" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="4">
+      <c r="B44" s="3">
         <v>2</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
+      <c r="E44" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F44" s="3"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="4">
+      <c r="B45" s="3">
         <v>3</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
+      <c r="E45" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F45" s="3"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="4">
+      <c r="B46" s="3">
         <v>4</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
+      <c r="E46" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F46" s="3"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="4">
+      <c r="B50" s="3">
         <v>1</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4" t="s">
+      <c r="E50" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" s="4">
+      <c r="B51" s="3">
         <v>2</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
+      <c r="E51" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F51" s="3"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="4">
+      <c r="B52" s="3">
         <v>3</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
+      <c r="E52" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="4">
+      <c r="B53" s="3">
         <v>4</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
+      <c r="E53" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="4">
+      <c r="B54" s="3">
         <v>5</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
+      <c r="E54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="4">
+      <c r="B55" s="3">
         <v>6</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
+      <c r="E55" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F55" s="3"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F58" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="4">
+      <c r="B59" s="3">
         <v>1</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4" t="s">
+      <c r="E59" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B60" s="4">
+      <c r="B60" s="3">
         <v>2</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
+      <c r="E60" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F60" s="3"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="4">
+      <c r="B61" s="3">
         <v>3</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
+      <c r="E61" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F61" s="3"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B62" s="4">
+      <c r="B62" s="3">
         <v>4</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
+      <c r="E62" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F62" s="3"/>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E65" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="F65" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B66" s="4">
+      <c r="B66" s="3">
         <v>1</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4" t="s">
+      <c r="E66" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F66" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B67" s="4">
+      <c r="B67" s="3">
         <v>2</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
+      <c r="E67" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F67" s="3"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E70" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="F70" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B71" s="4">
+      <c r="B71" s="3">
         <v>1</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4" t="s">
+      <c r="E71" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F71" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B72" s="4">
+      <c r="B72" s="3">
         <v>2</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
+      <c r="E72" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F72" s="3"/>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B73" s="4">
+      <c r="B73" s="3">
         <v>3</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
+      <c r="E73" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F73" s="3"/>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B74" s="4">
+      <c r="B74" s="3">
         <v>4</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
+      <c r="E74" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F74" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B34:F34"/>
     <mergeCell ref="B41:F41"/>
     <mergeCell ref="B48:F48"/>
     <mergeCell ref="B57:F57"/>
     <mergeCell ref="B64:F64"/>
     <mergeCell ref="B69:F69"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B34:F34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
